--- a/results/mod1.edu.f.eff.COMB.xlsx
+++ b/results/mod1.edu.f.eff.COMB.xlsx
@@ -434,22 +434,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.882234347802594</v>
+        <v>0.882233374529509</v>
       </c>
       <c r="D2" t="n">
-        <v>0.015566653524791</v>
+        <v>0.0155548496273142</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>0.85172426753419</v>
+        <v>0.851746429475037</v>
       </c>
       <c r="G2" t="n">
-        <v>0.912744428070998</v>
+        <v>0.912720319583982</v>
       </c>
       <c r="H2" t="n">
-        <v>56.6746312171444</v>
+        <v>56.7175765544086</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -463,22 +463,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.880086341546728</v>
+        <v>0.880088242075295</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0165393696825077</v>
+        <v>0.0165293778647295</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.847669772642019</v>
+        <v>0.847691256773572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.912502910451436</v>
+        <v>0.912485227377019</v>
       </c>
       <c r="H3" t="n">
-        <v>53.2116010731366</v>
+        <v>53.2438818494936</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.875683233752566</v>
+        <v>0.875683388559866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0155571528688821</v>
+        <v>0.0155456293602038</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>0.845191774427573</v>
+        <v>0.845214514896858</v>
       </c>
       <c r="G4" t="n">
-        <v>0.906174693077559</v>
+        <v>0.906152262222874</v>
       </c>
       <c r="H4" t="n">
-        <v>56.2881422541096</v>
+        <v>56.3298769235795</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -521,22 +521,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.874757206280827</v>
+        <v>0.874756690397064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0153961884315277</v>
+        <v>0.0153845055388545</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>0.84458123145584</v>
+        <v>0.844603613620953</v>
       </c>
       <c r="G5" t="n">
-        <v>0.904933181105813</v>
+        <v>0.904909767173176</v>
       </c>
       <c r="H5" t="n">
-        <v>56.8164783232671</v>
+        <v>56.8595908518354</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -550,22 +550,22 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.882628772624351</v>
+        <v>0.882627686455396</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0147859240690021</v>
+        <v>0.0147752149227014</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>0.853648893970963</v>
+        <v>0.853668797343063</v>
       </c>
       <c r="G6" t="n">
-        <v>0.911608651277739</v>
+        <v>0.91158657556773</v>
       </c>
       <c r="H6" t="n">
-        <v>59.6938526469735</v>
+        <v>59.7370455233975</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.874109373795177</v>
+        <v>0.874108343405946</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0160613383299834</v>
+        <v>0.0160495602741364</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>0.842629729124897</v>
+        <v>0.842651783300933</v>
       </c>
       <c r="G7" t="n">
-        <v>0.905589018465457</v>
+        <v>0.905564903510958</v>
       </c>
       <c r="H7" t="n">
-        <v>54.4231966126625</v>
+        <v>54.4630711667882</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.883189522650795</v>
+        <v>0.883188369248962</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0152788265746753</v>
+        <v>0.0152681406726329</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>0.853243572838398</v>
+        <v>0.85326336341971</v>
       </c>
       <c r="G8" t="n">
-        <v>0.913135472463192</v>
+        <v>0.913113375078213</v>
       </c>
       <c r="H8" t="n">
-        <v>57.8048005410757</v>
+        <v>57.8451815571765</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -637,25 +637,25 @@
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176673076168165</v>
+        <v>0.176672623613768</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0195419154982815</v>
+        <v>0.0195273188101427</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>0.138371625602608</v>
+        <v>0.138399782031257</v>
       </c>
       <c r="G9" t="n">
-        <v>0.214974526733722</v>
+        <v>0.214945465196279</v>
       </c>
       <c r="H9" t="n">
-        <v>9.04072459957681</v>
+        <v>9.04745937378777</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000000000000000000155636683512608</v>
+        <v>0.000000000000000000146333307343403</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +666,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0628494229318444</v>
+        <v>0.0628483603387936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00947801208931172</v>
+        <v>0.00947290748436445</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0442728605917582</v>
+        <v>0.0442818028405594</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0814259852719306</v>
+        <v>0.0814149178370279</v>
       </c>
       <c r="H10" t="n">
-        <v>6.63107646831545</v>
+        <v>6.63453754219898</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0000000000333247527548196</v>
+        <v>0.000000000032552149432764</v>
       </c>
     </row>
     <row r="11">
@@ -695,25 +695,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>0.106473787171624</v>
+        <v>0.106472691988586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0132397496829032</v>
+        <v>0.0132305065521562</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0805243546288076</v>
+        <v>0.080541375649139</v>
       </c>
       <c r="G11" t="n">
-        <v>0.132423219714439</v>
+        <v>0.132404008328034</v>
       </c>
       <c r="H11" t="n">
-        <v>8.04197886831012</v>
+        <v>8.04751439930578</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000000000000000883991388219157</v>
+        <v>0.000000000000000844924327010007</v>
       </c>
     </row>
     <row r="12">
@@ -724,25 +724,25 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>0.122494388781137</v>
+        <v>0.122494198639319</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0145289254877736</v>
+        <v>0.0145182770626018</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0940182180910345</v>
+        <v>0.0940388984790459</v>
       </c>
       <c r="G12" t="n">
-        <v>0.150970559471239</v>
+        <v>0.150949498799593</v>
       </c>
       <c r="H12" t="n">
-        <v>8.43107006668995</v>
+        <v>8.43724073532508</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0000000000000000342518582769969</v>
+        <v>0.0000000000000000324916804382339</v>
       </c>
     </row>
     <row r="13">
@@ -753,25 +753,25 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.118521408510487</v>
+        <v>0.118520809565778</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0147268133215524</v>
+        <v>0.0147168421885384</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0896573847931999</v>
+        <v>0.089676328910083</v>
       </c>
       <c r="G13" t="n">
-        <v>0.147385432227775</v>
+        <v>0.147365290221473</v>
       </c>
       <c r="H13" t="n">
-        <v>8.04800101166717</v>
+        <v>8.05341309279535</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000000000000000841572531474725</v>
+        <v>0.000000000000000805165766718867</v>
       </c>
     </row>
     <row r="14">
@@ -782,25 +782,25 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.146642232117104</v>
+        <v>0.146641893553737</v>
       </c>
       <c r="D14" t="n">
-        <v>0.017013616617655</v>
+        <v>0.0170013260871449</v>
       </c>
       <c r="E14" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F14" t="n">
-        <v>0.113296156299728</v>
+        <v>0.113319906733511</v>
       </c>
       <c r="G14" t="n">
-        <v>0.17998830793448</v>
+        <v>0.179963880373962</v>
       </c>
       <c r="H14" t="n">
-        <v>8.61910994073615</v>
+        <v>8.62532091920854</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00000000000000000674765456098967</v>
+        <v>0.00000000000000000639131746127804</v>
       </c>
     </row>
     <row r="15">
@@ -811,25 +811,25 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.142323726708111</v>
+        <v>0.14232284937814</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0173154761931031</v>
+        <v>0.017303900568294</v>
       </c>
       <c r="E15" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F15" t="n">
-        <v>0.108386016994468</v>
+        <v>0.108407827472221</v>
       </c>
       <c r="G15" t="n">
-        <v>0.176261436421754</v>
+        <v>0.176237871284058</v>
       </c>
       <c r="H15" t="n">
-        <v>8.21945207402382</v>
+        <v>8.22489986095498</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000000000000000204435036670057</v>
+        <v>0.000000000000000195354002860459</v>
       </c>
     </row>
   </sheetData>
